--- a/src/main/resources/files/Dane.xlsx
+++ b/src/main/resources/files/Dane.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{767C2A4E-BAF1-4063-A97C-C27B77180BB7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,9 +107,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -390,20 +389,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -436,31 +439,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
